--- a/DOM_Banner/output/dept_banner/Mohanad AlObaidi_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Mohanad AlObaidi_2022.xlsx
@@ -1072,7 +1072,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2604242501", "https://openalex.org/W2020360709", "https://openalex.org/W265670488", "https://openalex.org/W2135544078", "https://openalex.org/W1580414014", "https://openalex.org/W2883827709", "https://openalex.org/W2333066761", "https://openalex.org/W4287091864", "https://openalex.org/W1515306984", "https://openalex.org/W1023771799")</t>
+          <t>c("https://openalex.org/W2147134731", "https://openalex.org/W2484779862", "https://openalex.org/W1997519264", "https://openalex.org/W2427774695", "https://openalex.org/W2137643336", "https://openalex.org/W1965081240", "https://openalex.org/W2900130757", "https://openalex.org/W2738762771", "https://openalex.org/W2099295865", "https://openalex.org/W2333066761")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Mohanad AlObaidi_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Mohanad AlObaidi_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Clinical and Translational Fungal – Working Group, University of California San Diego, La Jolla, CA; Division of Infectious Diseases and Global Public Health, Department of Medicine, University of California San Diego, La Jolla, CA; Division of Infectious Diseases, Excellence Center for Medical Mycology (ECMM), Medical University of Graz, Graz, Austria; German Centre for Infection Research (DZIF), Partner Site Bonn-Cologne, Cologne, Germany; University of Cologne, Faculty of Medicine and University Hospital Cologne, Chair Translational Research, Cologne Excellence Cluster on Cellular Stress Responses in Aging-Associated Diseases (CECAD), Cologne, Germany; University of Cologne, Faculty of Medicine and University Hospital Cologne, Department I of Internal Medicine, Excellence Center for Medical Mycology (ECMM), Cologne, Germany; Center for Discovery and Innovation, Hackensack Meridian Health, Nutley, NJ, 07110, USA; Division of Infectious Diseases and Department of Medicine, Duke University Medical Center, Durham, NC, USA; Institute of Hygiene and Medical Microbiology, Excellence Center for Medical Mycology (ECMM), Medical University of Innsbruck, Innsbruck, Austria; Clinical Pharmacokinetics Unit, Division of Intensive Care and Emergency Medicine, Department of Internal Medicine I, Medical University of Innsbruck, Innsbruck, Austria; Division of Infectious Diseases, Excellence Center for Medical Mycology (ECMM), Medical University of Graz, Graz, Austria; University of Cologne, Faculty of Medicine and University Hospital Cologne, Department I of Internal Medicine, Excellence Center for Medical Mycology (ECMM), Cologne, Germany; Department of Internal Medicine, Division of Infectious Diseases and Department of Medical Microbiology and Immunology, University of California Davis Medical Center; Department of Pathology and Laboratory Medicine, University of Texas Health Science Center at San Antonio, San Antonio, TX, USA; Division of Infectious Diseases, University of Arizona College of Medicine, Tucson, AZ, USA; Division of Clinical Microbiology, Department of Laboratory Medicine, Medical University of Vienna, Austria; Department of Clinical Medicine, University of Copenhagen, Copenhagen, Denmark; Department of Clinical Microbiology, Rigshospitalet, Copenhagen, Denmark; Unit of Mycology, Statens Serum Institut, Copenhagen, Denmark; University of Cologne, Faculty of Medicine and University Hospital Cologne, Chair Translational Research, Cologne Excellence Cluster on Cellular Stress Responses in Aging-Associated Diseases (CECAD), Cologne, Germany; University of Cologne, Faculty of Medicine and University Hospital Cologne, Department I of Internal Medicine, Excellence Center for Medical Mycology (ECMM), Cologne, Germany; University of Cologne, Faculty of Medicine and University Hospital Cologne, Chair Translational Research, Cologne Excellence Cluster on Cellular Stress Responses in Aging-Associated Diseases (CECAD), Cologne, Germany; University of Cologne, Faculty of Medicine and University Hospital Cologne, Department I of Internal Medicine, Excellence Center for Medical Mycology (ECMM), Cologne, Germany; Division of Infectious Diseases, Excellence Center for Medical Mycology (ECMM), Medical University of Graz, Graz, Austria; Division of Infectious Diseases, Department of Medicine, Faculty of Medicine &amp; Dentistry, University of Alberta, Edmonton, Alberta; German Centre for Infection Research (DZIF), Partner Site Bonn-Cologne, Cologne, Germany; University of Cologne, Faculty of Medicine and University Hospital Cologne, Chair Translational Research, Cologne Excellence Cluster on Cellular Stress Responses in Aging-Associated Diseases (CECAD), Cologne, Germany; University of Cologne, Faculty of Medicine and University Hospital Cologne, Department I of Internal Medicine, Excellence Center for Medical Mycology (ECMM), Cologne, Germany; Department of Medicine, Division of Infectious Diseases, University of Alabama at Birmingham, Birmingham, AL, USA; Division of Infectious Diseases, Excellence Center for Medical Mycology (ECMM), Medical University of Graz, Graz, Austria</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282020832</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Invasive candidiasis: investigational drugs in the clinical development pipeline and mechanisms of action</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-06-15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Expert Opinion on Investigational Drugs</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/13543784.2022.2086120</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35657026</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/13543784.2022.2086120</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, Banner University Medical Center , Tucson, Arizona , USA; Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, USA; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA; Department of Surgery, The Banner University Medical Center, Tucson, Arizona, USA; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA; Department of Medicine, Banner University Medical Center Phoenix, Phoenix, Arizona, USA; Division of Clinical Data Analytics and Decision Support, Department of Medicine, College of Medicine – Phoenix, University of Arizona, Phoenix, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Information Systems, Naveen Jindal School of Management, The University of Texas at Dallas, Dallas, Texas, USA; Medical University of South Carolina, Lancaster, South Carolina, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223491415</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Effectiveness of Casirivimab-Imdevimab Monoclonal Antibody Treatment Among High-Risk Patients With Severe Acute Respiratory Syndrome Coronavirus 2 B.1.617.2 (Delta Variant) Infection</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35791354</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA; Division of Infectious Diseases, University of Arizona College of Medicine-Tucson, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4287091864</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The Utility of (1→3)-β-D-Glucan Testing in the Diagnosis of Coccidioidomycosis in Hospitalized Immunocompromised Patients</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-07-25</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Fungi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof8080768</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35893136</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/jof8080768</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases Banner University Medical Center – Tucson, Univeristy of Arizona  Tucson Arizona USA; Division of Infectious Diseases, Univeristy of Arizona, Banner University Medical Center - Tucson, Tucson, Arizona, USA.; Division of Infectious Diseases, Univeristy of Arizona, Banner University Medical Center - Tucson, Tucson, Arizona, USA.; Division of Infectious Diseases, Univeristy of Arizona, Banner University Medical Center - Tucson, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309411073</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Effect of coccidioidomycosis prophylaxis in selecting &lt;scp&gt;non‐&lt;/scp&gt;&lt;i&gt;Candida albicans&lt;/i&gt; species amongst solid organ transplant recipients in Arizona</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-11-27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Mycoses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/myc.13547</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36401812</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/myc.13547</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Infectious Diseases, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311814760</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Lack of effectiveness of Bebtelovimab Monoclonal Antibody Among High-Risk Patients with SARS-Cov-2 Omicron During BA.2, BA.2.12.1 and BA.5 Subvariants Dominated Era</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-12-07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.06.22283183</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Infectious Disease, Banner University Medical Center-Tucson, Tucson, AZ, United States; Infectious Disease, Banner University Medical Center-Tucson, Tucson, AZ, United States; Transplant Infectious Disease, Banner University Medical Center-Tucson, Tucson, AZ, United States; Transplant Infectious Disease, Banner University Medical Center-Tucson, Tucson, AZ, United States; Transplant Infectious Disease, Banner University Medical Center-Tucson, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225305703</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>What's Abuzz? Encephalopathy in a Transplant Recipient</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4221</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2022.205.1_meetingabstracts.a4221</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, The Banner University Medical Center, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona College of Medicine – Tucson: The University of Arizona College of Medicine Tucson;; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Department of Surgery, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, U.S.A.; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.;  Istanbul Technical University;; Division of Nephrology, Virginia Commonwealth University, Richmond, Virginia, U.S.A.; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, U.S.A.;  The University of Arizona Mel and Enid Zuckerman College of Public Health;;  Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, U.S.A.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312197410</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>EFFECTIVENESS OF CASIRIVIMAB-IMDEVIMAB AND SOTROVIMAB MONOCLONAL ANTIBODY TREATMENT AMONG HIGH-RISK PATIENTS WITH SARS-CoV-2 INFECTION: A REAL-WORLD EXPERIENCE</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-12-26</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.12.23.22283921</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
